--- a/SEIR_2_wave/data/calibration/hospital_rates - Copy.xlsx
+++ b/SEIR_2_wave/data/calibration/hospital_rates - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE457D1-C2C6-4581-B715-2683E30284D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A77B58-C31D-46AC-9DC2-2883385F5A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9DE2AF73-A7CF-4380-A829-23151371B406}"/>
   </bookViews>
@@ -2261,118 +2261,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7621970136716743E-2</c:v>
+                  <c:v>3.1938703654614542E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9674054886409941E-2</c:v>
+                  <c:v>6.4147791233401655E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7639075392454807E-2</c:v>
+                  <c:v>8.4895556869360109E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5316574356368103E-2</c:v>
+                  <c:v>9.4714628058349321E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1025174070268758</c:v>
+                  <c:v>9.622933966828924E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10141047764229109</c:v>
+                  <c:v>9.2149130372830443E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4686357029480778E-2</c:v>
+                  <c:v>8.4710064938911964E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.474899560483419E-2</c:v>
+                  <c:v>7.5577803581713912E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3444772806819561E-2</c:v>
+                  <c:v>6.5907729808951154E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2047945821140829E-2</c:v>
+                  <c:v>5.6448920691082621E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1350665166133312E-2</c:v>
+                  <c:v>4.764814138147147E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.178075505296542E-2</c:v>
+                  <c:v>3.9738393563754706E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3512147806703342E-2</c:v>
+                  <c:v>3.2808493534169127E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6554891088100985E-2</c:v>
+                  <c:v>2.6854990860014489E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0822496285282072E-2</c:v>
+                  <c:v>2.181939032652478E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6179136440048879E-2</c:v>
+                  <c:v>1.7613886329285709E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2470771524823395E-2</c:v>
+                  <c:v>1.4138491630993259E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5443274336665974E-3</c:v>
+                  <c:v>1.1291930699610165E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.2584725272022057E-3</c:v>
+                  <c:v>8.978147204849735E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4887760001800538E-3</c:v>
+                  <c:v>7.1098170034242939E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.1293075596282791E-3</c:v>
+                  <c:v>5.6098834051465157E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0921306351842058E-3</c:v>
+                  <c:v>4.4118391833660418E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3056695417193358E-3</c:v>
+                  <c:v>3.4592589814997966E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7125833009186318E-3</c:v>
+                  <c:v>2.7049232327902798E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2675331842325222E-3</c:v>
+                  <c:v>2.1097577205536223E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.3506401606582011E-4</c:v>
+                  <c:v>1.6417304580442515E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.8771003000515961E-4</c:v>
+                  <c:v>1.2747907031912095E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0436770073059272E-4</c:v>
+                  <c:v>9.8789662935311134E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.6893754980903793E-4</c:v>
+                  <c:v>7.641531079369795E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.6921496431699332E-4</c:v>
+                  <c:v>5.9006524432338961E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9599985834469686E-4</c:v>
+                  <c:v>4.5490383719316049E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.4239193817400104E-4</c:v>
+                  <c:v>3.5017371315285931E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0323933144363574E-4</c:v>
+                  <c:v>2.6917344587481346E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.4711429734007165E-5</c:v>
+                  <c:v>2.0663427452120153E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.3970745776956486E-5</c:v>
+                  <c:v>1.5842638883302289E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.8922678206333783E-5</c:v>
+                  <c:v>1.2132167941548802E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8025913954283559E-5</c:v>
+                  <c:v>9.2803256471358554E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0149593257077205E-5</c:v>
+                  <c:v>7.0913326730173289E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3110,166 +3110,166 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5291314118539333E-3</c:v>
+                  <c:v>2.6496150672176114E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1670025706861965E-2</c:v>
+                  <c:v>1.2057648018933395E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5123756632883854E-2</c:v>
+                  <c:v>2.5748595337092086E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.958614020644468E-2</c:v>
+                  <c:v>4.0337905841009117E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.256850444000663E-2</c:v>
+                  <c:v>5.3328284194231315E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2650833374035722E-2</c:v>
+                  <c:v>6.3325002628873597E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.929577774666433E-2</c:v>
+                  <c:v>6.9825845294268316E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2569872758470988E-2</c:v>
+                  <c:v>7.2929955918871969E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2892269926802117E-2</c:v>
+                  <c:v>7.3081594413945461E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0845089513258727E-2</c:v>
+                  <c:v>7.0879581159993002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7045756847213575E-2</c:v>
+                  <c:v>6.6950655456625888E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2070023910466086E-2</c:v>
+                  <c:v>6.1874211422485718E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6412120239813457E-2</c:v>
+                  <c:v>5.6144206092020324E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0469936985654766E-2</c:v>
+                  <c:v>5.0155849549946924E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4545745661761262E-2</c:v>
+                  <c:v>4.4207483866608166E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8855569548924829E-2</c:v>
+                  <c:v>3.8510775910095274E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3542536075313115E-2</c:v>
+                  <c:v>3.3204604085588806E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.869124018024917E-2</c:v>
+                  <c:v>2.836973376214471E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4341377612168629E-2</c:v>
+                  <c:v>2.4042602203326414E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0499748280821472E-2</c:v>
+                  <c:v>2.0227365293122076E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7150275445436045E-2</c:v>
+                  <c:v>1.6905892489224795E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.426201869143846E-2</c:v>
+                  <c:v>1.4045717746367009E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1795343457026965E-2</c:v>
+                  <c:v>1.1606129810214435E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.706497453365253E-3</c:v>
+                  <c:v>9.5426656883264085E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.9508709776766225E-3</c:v>
+                  <c:v>7.8102924331950232E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.48520910571932E-3</c:v>
+                  <c:v>6.3655495935664302E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.2690159756572435E-3</c:v>
+                  <c:v>5.1678943821700752E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.2653556802121663E-3</c:v>
+                  <c:v>4.1804543042660404E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.4412172564049254E-3</c:v>
+                  <c:v>3.3703540199370862E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.7675766083594209E-3</c:v>
+                  <c:v>2.7087480730490234E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2192577418017551E-3</c:v>
+                  <c:v>2.1706604776447701E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.774670074763601E-3</c:v>
+                  <c:v>1.734706539675204E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4154777690151717E-3</c:v>
+                  <c:v>1.3827515796598006E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1262405786953908E-3</c:v>
+                  <c:v>1.0995449338274757E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.9405304575623584E-4</c:v>
+                  <c:v>8.7235512195560708E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.0819935221165683E-4</c:v>
+                  <c:v>6.9062272437938981E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.5983416104889703E-4</c:v>
+                  <c:v>5.4564069104364018E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.4169480005535326E-4</c:v>
+                  <c:v>4.3026696558633447E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4784670409122122E-4</c:v>
+                  <c:v>3.3867098412474611E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7346175064827413E-4</c:v>
+                  <c:v>2.6611342165387697E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1462769509717882E-4</c:v>
+                  <c:v>2.0875720508564211E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.6818609595672235E-4</c:v>
+                  <c:v>1.6350705372837111E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3159573253417644E-4</c:v>
+                  <c:v>1.2787446391088604E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0281841861890371E-4</c:v>
+                  <c:v>9.986498834518425E-5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.0224204150804385E-5</c:v>
+                  <c:v>7.7884772625312621E-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.2513157953763651E-5</c:v>
+                  <c:v>6.0663529005892997E-5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.8651186556641485E-5</c:v>
+                  <c:v>4.7191400794056495E-5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7817631083843021E-5</c:v>
+                  <c:v>3.6667464938044973E-5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9362672595629041E-5</c:v>
+                  <c:v>2.8457913187645939E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.2772851316965115E-5</c:v>
+                  <c:v>2.2062229591192995E-5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7643258388226854E-5</c:v>
+                  <c:v>1.708593619238017E-5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3655185904668325E-5</c:v>
+                  <c:v>1.3218705877082832E-5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0558220789243531E-5</c:v>
+                  <c:v>1.021684045061635E-5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.1559410347259027E-6</c:v>
+                  <c:v>7.8892840204285259E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13116,7 +13116,7 @@
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13384,11 +13384,11 @@
       </c>
       <c r="AA4">
         <f>_xlfn.GAMMA.DIST(N4,$J$7,$J$8,FALSE)</f>
-        <v>1.7620325650696305E-2</v>
+        <v>3.1887537662115398E-2</v>
       </c>
       <c r="AB4">
         <f t="shared" ref="AB4:AB41" si="5">AA4/$AA$42</f>
-        <v>1.7621970136716743E-2</v>
+        <v>3.1938703654614542E-2</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
@@ -13470,11 +13470,11 @@
       </c>
       <c r="AA5">
         <f>_xlfn.GAMMA.DIST(N5,$J$7,$J$8,FALSE)</f>
-        <v>4.9669419292988473E-2</v>
+        <v>6.4045026091754748E-2</v>
       </c>
       <c r="AB5">
         <f t="shared" si="5"/>
-        <v>4.9674054886409941E-2</v>
+        <v>6.4147791233401655E-2</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
@@ -13556,11 +13556,11 @@
       </c>
       <c r="AA6">
         <f>_xlfn.GAMMA.DIST(N6,$J$7,$J$8,FALSE)</f>
-        <v>7.7631830097341259E-2</v>
+        <v>8.4759553684228925E-2</v>
       </c>
       <c r="AB6">
         <f t="shared" si="5"/>
-        <v>7.7639075392454807E-2</v>
+        <v>8.4895556869360109E-2</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
@@ -13591,7 +13591,7 @@
         <v>60</v>
       </c>
       <c r="J7" s="44">
-        <v>3.05</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="N7" s="6">
         <v>4</v>
@@ -13642,11 +13642,11 @@
       </c>
       <c r="AA7">
         <f>_xlfn.GAMMA.DIST(N7,$J$7,$J$8,FALSE)</f>
-        <v>9.5307679393272102E-2</v>
+        <v>9.456289466299303E-2</v>
       </c>
       <c r="AB7">
         <f t="shared" si="5"/>
-        <v>9.5316574356368103E-2</v>
+        <v>9.4714628058349321E-2</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
@@ -13677,7 +13677,7 @@
         <v>61</v>
       </c>
       <c r="J8" s="44">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N8" s="6">
         <v>5</v>
@@ -13728,11 +13728,11 @@
       </c>
       <c r="AA8">
         <f>_xlfn.GAMMA.DIST(N8,$J$7,$J$8,FALSE)</f>
-        <v>0.10250784008053557</v>
+        <v>9.6075179695958801E-2</v>
       </c>
       <c r="AB8">
         <f t="shared" si="5"/>
-        <v>0.1025174070268758</v>
+        <v>9.622933966828924E-2</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -13808,11 +13808,11 @@
       </c>
       <c r="AA9">
         <f>_xlfn.GAMMA.DIST(N9,$J$7,$J$8,FALSE)</f>
-        <v>0.10140101399483767</v>
+        <v>9.2001506919967543E-2</v>
       </c>
       <c r="AB9">
         <f t="shared" si="5"/>
-        <v>0.10141047764229109</v>
+        <v>9.2149130372830443E-2</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -13888,11 +13888,11 @@
       </c>
       <c r="AA10">
         <f>_xlfn.GAMMA.DIST(N10,$J$7,$J$8,FALSE)</f>
-        <v>9.4677520878400451E-2</v>
+        <v>8.4574358912952438E-2</v>
       </c>
       <c r="AB10">
         <f t="shared" si="5"/>
-        <v>9.4686357029480778E-2</v>
+        <v>8.4710064938911964E-2</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -13968,11 +13968,11 @@
       </c>
       <c r="AA11">
         <f>_xlfn.GAMMA.DIST(N11,$J$7,$J$8,FALSE)</f>
-        <v>8.4741086810446453E-2</v>
+        <v>7.5456727492559453E-2</v>
       </c>
       <c r="AB11">
         <f t="shared" si="5"/>
-        <v>8.474899560483419E-2</v>
+        <v>7.5577803581713912E-2</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
@@ -14049,11 +14049,11 @@
       </c>
       <c r="AA12">
         <f>_xlfn.GAMMA.DIST(N12,$J$7,$J$8,FALSE)</f>
-        <v>7.3437918924919979E-2</v>
+        <v>6.5802145235278164E-2</v>
       </c>
       <c r="AB12">
         <f t="shared" si="5"/>
-        <v>7.3444772806819561E-2</v>
+        <v>6.5907729808951154E-2</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
@@ -14130,11 +14130,11 @@
       </c>
       <c r="AA13">
         <f>_xlfn.GAMMA.DIST(N13,$J$7,$J$8,FALSE)</f>
-        <v>6.2042155493572004E-2</v>
+        <v>5.6358489185662157E-2</v>
       </c>
       <c r="AB13">
         <f t="shared" si="5"/>
-        <v>6.2047945821140829E-2</v>
+        <v>5.6448920691082621E-2</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
@@ -14211,11 +14211,11 @@
       </c>
       <c r="AA14">
         <f>_xlfn.GAMMA.DIST(N14,$J$7,$J$8,FALSE)</f>
-        <v>5.1345873111082109E-2</v>
+        <v>4.7571808776651722E-2</v>
       </c>
       <c r="AB14">
         <f t="shared" si="5"/>
-        <v>5.1350665166133312E-2</v>
+        <v>4.764814138147147E-2</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
@@ -14292,11 +14292,11 @@
       </c>
       <c r="AA15">
         <f>_xlfn.GAMMA.DIST(N15,$J$7,$J$8,FALSE)</f>
-        <v>4.1776856063971857E-2</v>
+        <v>3.9674732421806087E-2</v>
       </c>
       <c r="AB15">
         <f t="shared" si="5"/>
-        <v>4.178075505296542E-2</v>
+        <v>3.9738393563754706E-2</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -14372,11 +14372,11 @@
       </c>
       <c r="AA16">
         <f>_xlfn.GAMMA.DIST(N16,$J$7,$J$8,FALSE)</f>
-        <v>3.3509020445905688E-2</v>
+        <v>3.2755934133129223E-2</v>
       </c>
       <c r="AB16">
         <f t="shared" si="5"/>
-        <v>3.3512147806703342E-2</v>
+        <v>3.2808493534169127E-2</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
@@ -14452,11 +14452,11 @@
       </c>
       <c r="AA17">
         <f>_xlfn.GAMMA.DIST(N17,$J$7,$J$8,FALSE)</f>
-        <v>2.6552412979987658E-2</v>
+        <v>2.6811969005534505E-2</v>
       </c>
       <c r="AB17">
         <f t="shared" si="5"/>
-        <v>2.6554891088100985E-2</v>
+        <v>2.6854990860014489E-2</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
@@ -14532,11 +14532,11 @@
       </c>
       <c r="AA18">
         <f>_xlfn.GAMMA.DIST(N18,$J$7,$J$8,FALSE)</f>
-        <v>2.0820553125477231E-2</v>
+        <v>2.1784435533936584E-2</v>
       </c>
       <c r="AB18">
         <f t="shared" si="5"/>
-        <v>2.0822496285282072E-2</v>
+        <v>2.181939032652478E-2</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
@@ -14612,11 +14612,11 @@
       </c>
       <c r="AA19">
         <f>_xlfn.GAMMA.DIST(N19,$J$7,$J$8,FALSE)</f>
-        <v>1.6177626599577468E-2</v>
+        <v>1.7585668779019705E-2</v>
       </c>
       <c r="AB19">
         <f t="shared" si="5"/>
-        <v>1.6179136440048879E-2</v>
+        <v>1.7613886329285709E-2</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
@@ -14692,11 +14692,11 @@
       </c>
       <c r="AA20">
         <f>_xlfn.GAMMA.DIST(N20,$J$7,$J$8,FALSE)</f>
-        <v>1.2469607749758659E-2</v>
+        <v>1.4115841683626465E-2</v>
       </c>
       <c r="AB20">
         <f t="shared" si="5"/>
-        <v>1.2470771524823395E-2</v>
+        <v>1.4138491630993259E-2</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
@@ -14772,11 +14772,11 @@
       </c>
       <c r="AA21">
         <f>_xlfn.GAMMA.DIST(N21,$J$7,$J$8,FALSE)</f>
-        <v>9.5434367549900728E-3</v>
+        <v>1.1273840959722E-2</v>
       </c>
       <c r="AB21">
         <f t="shared" si="5"/>
-        <v>9.5443274336665974E-3</v>
+        <v>1.1291930699610165E-2</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
@@ -14852,11 +14852,11 @@
       </c>
       <c r="AA22">
         <f>_xlfn.GAMMA.DIST(N22,$J$7,$J$8,FALSE)</f>
-        <v>7.2577951649942284E-3</v>
+        <v>8.9637641598298966E-3</v>
       </c>
       <c r="AB22">
         <f t="shared" si="5"/>
-        <v>7.2584725272022057E-3</v>
+        <v>8.978147204849735E-3</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
@@ -14932,11 +14932,11 @@
       </c>
       <c r="AA23">
         <f>_xlfn.GAMMA.DIST(N23,$J$7,$J$8,FALSE)</f>
-        <v>5.4882637864303099E-3</v>
+        <v>7.098427034457443E-3</v>
       </c>
       <c r="AB23">
         <f t="shared" si="5"/>
-        <v>5.4887760001800538E-3</v>
+        <v>7.1098170034242939E-3</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
@@ -15012,11 +15012,11 @@
       </c>
       <c r="AA24">
         <f>_xlfn.GAMMA.DIST(N24,$J$7,$J$8,FALSE)</f>
-        <v>4.1289222117640387E-3</v>
+        <v>5.6008963386915706E-3</v>
       </c>
       <c r="AB24">
         <f t="shared" si="5"/>
-        <v>4.1293075596282791E-3</v>
+        <v>5.6098834051465157E-3</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
@@ -15092,11 +15092,11 @@
       </c>
       <c r="AA25">
         <f>_xlfn.GAMMA.DIST(N25,$J$7,$J$8,FALSE)</f>
-        <v>3.0918420768922851E-3</v>
+        <v>4.4047713908530878E-3</v>
       </c>
       <c r="AB25">
         <f t="shared" si="5"/>
-        <v>3.0921306351842058E-3</v>
+        <v>4.4118391833660418E-3</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
@@ -15172,11 +15172,11 @@
       </c>
       <c r="AA26">
         <f>_xlfn.GAMMA.DIST(N26,$J$7,$J$8,FALSE)</f>
-        <v>2.3054543761447895E-3</v>
+        <v>3.4537172281144976E-3</v>
       </c>
       <c r="AB26">
         <f t="shared" si="5"/>
-        <v>2.3056695417193358E-3</v>
+        <v>3.4592589814997966E-3</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
@@ -15252,11 +15252,11 @@
       </c>
       <c r="AA27">
         <f>_xlfn.GAMMA.DIST(N27,$J$7,$J$8,FALSE)</f>
-        <v>1.7124234822788688E-3</v>
+        <v>2.7005899297440328E-3</v>
       </c>
       <c r="AB27">
         <f t="shared" si="5"/>
-        <v>1.7125833009186318E-3</v>
+        <v>2.7049232327902798E-3</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -15332,11 +15332,11 @@
       </c>
       <c r="AA28">
         <f>_xlfn.GAMMA.DIST(N28,$J$7,$J$8,FALSE)</f>
-        <v>1.2674148977647925E-3</v>
+        <v>2.1063778761844765E-3</v>
       </c>
       <c r="AB28">
         <f t="shared" si="5"/>
-        <v>1.2675331842325222E-3</v>
+        <v>2.1097577205536223E-3</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -15412,11 +15412,11 @@
       </c>
       <c r="AA29">
         <f>_xlfn.GAMMA.DIST(N29,$J$7,$J$8,FALSE)</f>
-        <v>9.3497675569194003E-4</v>
+        <v>1.6391003961228191E-3</v>
       </c>
       <c r="AB29">
         <f t="shared" si="5"/>
-        <v>9.3506401606582011E-4</v>
+        <v>1.6417304580442515E-3</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -15492,11 +15492,11 @@
       </c>
       <c r="AA30">
         <f>_xlfn.GAMMA.DIST(N30,$J$7,$J$8,FALSE)</f>
-        <v>6.8764585275813881E-4</v>
+        <v>1.2727484809312575E-3</v>
       </c>
       <c r="AB30">
         <f t="shared" si="5"/>
-        <v>6.8771003000515961E-4</v>
+        <v>1.2747907031912095E-3</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -15572,11 +15572,11 @@
       </c>
       <c r="AA31">
         <f>_xlfn.GAMMA.DIST(N31,$J$7,$J$8,FALSE)</f>
-        <v>5.0432063302893531E-4</v>
+        <v>9.863140130993639E-4</v>
       </c>
       <c r="AB31">
         <f t="shared" si="5"/>
-        <v>5.0436770073059272E-4</v>
+        <v>9.8789662935311134E-4</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
@@ -15652,11 +15652,11 @@
       </c>
       <c r="AA32">
         <f>_xlfn.GAMMA.DIST(N32,$J$7,$J$8,FALSE)</f>
-        <v>3.6890312047801717E-4</v>
+        <v>7.6292893013027462E-4</v>
       </c>
       <c r="AB32">
         <f t="shared" si="5"/>
-        <v>3.6893754980903793E-4</v>
+        <v>7.641531079369795E-4</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
@@ -15732,11 +15732,11 @@
       </c>
       <c r="AA33">
         <f>_xlfn.GAMMA.DIST(N33,$J$7,$J$8,FALSE)</f>
-        <v>2.6918984111896964E-4</v>
+        <v>5.8911995630570588E-4</v>
       </c>
       <c r="AB33">
         <f t="shared" si="5"/>
-        <v>2.6921496431699332E-4</v>
+        <v>5.9006524432338961E-4</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
@@ -15812,11 +15812,11 @@
       </c>
       <c r="AA34">
         <f>_xlfn.GAMMA.DIST(N34,$J$7,$J$8,FALSE)</f>
-        <v>1.959815675960147E-4</v>
+        <v>4.5417507855056305E-4</v>
       </c>
       <c r="AB34">
         <f t="shared" si="5"/>
-        <v>1.9599985834469686E-4</v>
+        <v>4.5490383719316049E-4</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
@@ -15892,11 +15892,11 @@
       </c>
       <c r="AA35">
         <f>_xlfn.GAMMA.DIST(N35,$J$7,$J$8,FALSE)</f>
-        <v>1.4237865012788964E-4</v>
+        <v>3.4961273278952547E-4</v>
       </c>
       <c r="AB35">
         <f t="shared" si="5"/>
-        <v>1.4239193817400104E-4</v>
+        <v>3.5017371315285931E-4</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
@@ -15972,11 +15972,11 @@
       </c>
       <c r="AA36">
         <f>_xlfn.GAMMA.DIST(N36,$J$7,$J$8,FALSE)</f>
-        <v>1.032296971271546E-4</v>
+        <v>2.6874222841960499E-4</v>
       </c>
       <c r="AB36">
         <f t="shared" si="5"/>
-        <v>1.0323933144363574E-4</v>
+        <v>2.6917344587481346E-4</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
@@ -16052,11 +16052,11 @@
       </c>
       <c r="AA37">
         <f>_xlfn.GAMMA.DIST(N37,$J$7,$J$8,FALSE)</f>
-        <v>7.4704457647412352E-5</v>
+        <v>2.063032451890611E-4</v>
       </c>
       <c r="AB37">
         <f t="shared" si="5"/>
-        <v>7.4711429734007165E-5</v>
+        <v>2.0663427452120153E-4</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
@@ -16132,11 +16132,11 @@
       </c>
       <c r="AA38">
         <f>_xlfn.GAMMA.DIST(N38,$J$7,$J$8,FALSE)</f>
-        <v>5.3965709215422551E-5</v>
+        <v>1.5817258881939815E-4</v>
       </c>
       <c r="AB38">
         <f t="shared" si="5"/>
-        <v>5.3970745776956486E-5</v>
+        <v>1.5842638883302289E-4</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
@@ -16212,11 +16212,11 @@
       </c>
       <c r="AA39">
         <f>_xlfn.GAMMA.DIST(N39,$J$7,$J$8,FALSE)</f>
-        <v>3.8919045933682555E-5</v>
+        <v>1.2112732136620445E-4</v>
       </c>
       <c r="AB39">
         <f t="shared" si="5"/>
-        <v>3.8922678206333783E-5</v>
+        <v>1.2132167941548802E-4</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
@@ -16292,11 +16292,11 @@
       </c>
       <c r="AA40">
         <f>_xlfn.GAMMA.DIST(N40,$J$7,$J$8,FALSE)</f>
-        <v>2.8023298570001878E-5</v>
+        <v>9.2654585104609956E-5</v>
       </c>
       <c r="AB40">
         <f t="shared" si="5"/>
-        <v>2.8025913954283559E-5</v>
+        <v>9.2803256471358554E-5</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
@@ -16372,11 +16372,11 @@
       </c>
       <c r="AA41">
         <f>_xlfn.GAMMA.DIST(N41,$J$7,$J$8,FALSE)</f>
-        <v>2.0147712892726814E-5</v>
+        <v>7.0799723160573142E-5</v>
       </c>
       <c r="AB41">
         <f t="shared" si="5"/>
-        <v>2.0149593257077205E-5</v>
+        <v>7.0913326730173289E-5</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
@@ -16438,11 +16438,11 @@
       </c>
       <c r="AA42" s="8">
         <f>SUM(AA3:AA41)</f>
-        <v>0.99990667978621695</v>
+        <v>0.99839799407476093</v>
       </c>
       <c r="AB42" s="8">
         <f>SUM(AB3:AB41)</f>
-        <v>0.99999999999999944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
@@ -16492,7 +16492,7 @@
       <c r="W44" s="9"/>
       <c r="AA44">
         <f>SUMPRODUCT(AA4:AA41,N4:N41)</f>
-        <v>7.9280996600581055</v>
+        <v>7.9532625519199849</v>
       </c>
       <c r="AB44" s="9"/>
     </row>
@@ -16510,7 +16510,7 @@
       </c>
       <c r="AA45">
         <f>(SUMPRODUCT(N4:N41,N4:N41,AA4:AA41)-AA44^2)^0.5</f>
-        <v>4.5343579602771875</v>
+        <v>5.0617362442448064</v>
       </c>
       <c r="AB45" s="9"/>
     </row>
@@ -16542,7 +16542,7 @@
   <dimension ref="A1:AI61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16884,11 +16884,11 @@
       </c>
       <c r="AH4" s="13">
         <f t="shared" ref="AH4:AH57" si="11">_xlfn.GAMMA.DIST(M4,$J$15,$J$16,FALSE)</f>
-        <v>2.5291114484471944E-3</v>
+        <v>2.6495999078222816E-3</v>
       </c>
       <c r="AI4" s="14">
         <f t="shared" ref="AI4:AI57" si="12">AH4/$AH$58</f>
-        <v>2.5291314118539333E-3</v>
+        <v>2.6496150672176114E-3</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
@@ -17000,11 +17000,11 @@
       </c>
       <c r="AH5" s="13">
         <f t="shared" si="11"/>
-        <v>1.1669933590861686E-2</v>
+        <v>1.2057579032817137E-2</v>
       </c>
       <c r="AI5" s="14">
         <f t="shared" si="12"/>
-        <v>1.1670025706861965E-2</v>
+        <v>1.2057648018933395E-2</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
@@ -17116,11 +17116,11 @@
       </c>
       <c r="AH6" s="13">
         <f t="shared" si="11"/>
-        <v>2.5123558321412127E-2</v>
+        <v>2.5748448020170192E-2</v>
       </c>
       <c r="AI6" s="14">
         <f t="shared" si="12"/>
-        <v>2.5123756632883854E-2</v>
+        <v>2.5748595337092086E-2</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
@@ -17232,11 +17232,11 @@
       </c>
       <c r="AH7" s="13">
         <f t="shared" si="11"/>
-        <v>3.958582773781831E-2</v>
+        <v>4.0337675053424539E-2</v>
       </c>
       <c r="AI7" s="14">
         <f t="shared" si="12"/>
-        <v>3.958614020644468E-2</v>
+        <v>4.0337905841009117E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
@@ -17344,11 +17344,11 @@
       </c>
       <c r="AH8" s="13">
         <f t="shared" si="11"/>
-        <v>5.2568089496587367E-2</v>
+        <v>5.3327979084046684E-2</v>
       </c>
       <c r="AI8" s="14">
         <f t="shared" si="12"/>
-        <v>5.256850444000663E-2</v>
+        <v>5.3328284194231315E-2</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
@@ -17456,11 +17456,11 @@
       </c>
       <c r="AH9" s="13">
         <f t="shared" si="11"/>
-        <v>6.2650338846917314E-2</v>
+        <v>6.3324640323887862E-2</v>
       </c>
       <c r="AI9" s="14">
         <f t="shared" si="12"/>
-        <v>6.2650833374035722E-2</v>
+        <v>6.3325002628873597E-2</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
@@ -17568,11 +17568,11 @@
       </c>
       <c r="AH10" s="13">
         <f t="shared" si="11"/>
-        <v>6.9295230768444863E-2</v>
+        <v>6.9825445795636931E-2</v>
       </c>
       <c r="AI10" s="14">
         <f t="shared" si="12"/>
-        <v>6.929577774666433E-2</v>
+        <v>6.9825845294268316E-2</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
@@ -17680,11 +17680,11 @@
       </c>
       <c r="AH11" s="13">
         <f t="shared" si="11"/>
-        <v>7.2569299936560638E-2</v>
+        <v>7.2929538660513632E-2</v>
       </c>
       <c r="AI11" s="14">
         <f t="shared" si="12"/>
-        <v>7.2569872758470988E-2</v>
+        <v>7.2929955918871969E-2</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
@@ -17786,11 +17786,11 @@
       </c>
       <c r="AH12" s="13">
         <f t="shared" si="11"/>
-        <v>7.2891694560086942E-2</v>
+        <v>7.3081176288009073E-2</v>
       </c>
       <c r="AI12" s="14">
         <f t="shared" si="12"/>
-        <v>7.2892269926802117E-2</v>
+        <v>7.3081594413945461E-2</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
@@ -17892,11 +17892,11 @@
       </c>
       <c r="AH13" s="13">
         <f t="shared" si="11"/>
-        <v>7.0844530305725739E-2</v>
+        <v>7.0879175632561894E-2</v>
       </c>
       <c r="AI13" s="14">
         <f t="shared" si="12"/>
-        <v>7.0845089513258727E-2</v>
+        <v>7.0879581159993002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
@@ -18004,11 +18004,11 @@
       </c>
       <c r="AH14" s="13">
         <f t="shared" si="11"/>
-        <v>6.7045227629274243E-2</v>
+        <v>6.6950272407983763E-2</v>
       </c>
       <c r="AI14" s="14">
         <f t="shared" si="12"/>
-        <v>6.7045756847213575E-2</v>
+        <v>6.6950655456625888E-2</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
@@ -18039,7 +18039,7 @@
         <v>60</v>
       </c>
       <c r="J15" s="44">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="M15">
         <v>12</v>
@@ -18116,11 +18116,11 @@
       </c>
       <c r="AH15" s="13">
         <f t="shared" si="11"/>
-        <v>6.2069533967900103E-2</v>
+        <v>6.1873857417995295E-2</v>
       </c>
       <c r="AI15" s="14">
         <f t="shared" si="12"/>
-        <v>6.2070023910466086E-2</v>
+        <v>6.1874211422485718E-2</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
@@ -18228,11 +18228,11 @@
       </c>
       <c r="AH16" s="13">
         <f t="shared" si="11"/>
-        <v>5.6411674957256734E-2</v>
+        <v>5.6143884870939513E-2</v>
       </c>
       <c r="AI16" s="14">
         <f t="shared" si="12"/>
-        <v>5.6412120239813457E-2</v>
+        <v>5.6144206092020324E-2</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
@@ -18334,11 +18334,11 @@
       </c>
       <c r="AH17" s="13">
         <f t="shared" si="11"/>
-        <v>5.0469538607035368E-2</v>
+        <v>5.0155562590395386E-2</v>
       </c>
       <c r="AI17" s="14">
         <f t="shared" si="12"/>
-        <v>5.0469936985654766E-2</v>
+        <v>5.0155849549946924E-2</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
@@ -18440,11 +18440,11 @@
       </c>
       <c r="AH18" s="13">
         <f t="shared" si="11"/>
-        <v>4.4545394045061956E-2</v>
+        <v>4.4207230939783904E-2</v>
       </c>
       <c r="AI18" s="14">
         <f t="shared" si="12"/>
-        <v>4.4545745661761262E-2</v>
+        <v>4.4207483866608166E-2</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
@@ -18546,11 +18546,11 @@
       </c>
       <c r="AH19" s="13">
         <f t="shared" si="11"/>
-        <v>3.8855262846973576E-2</v>
+        <v>3.8510555576174429E-2</v>
       </c>
       <c r="AI19" s="14">
         <f t="shared" si="12"/>
-        <v>3.8855569548924829E-2</v>
+        <v>3.8510775910095274E-2</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
@@ -18652,11 +18652,11 @@
       </c>
       <c r="AH20" s="13">
         <f t="shared" si="11"/>
-        <v>3.3542271311178047E-2</v>
+        <v>3.3204414110174517E-2</v>
       </c>
       <c r="AI20" s="14">
         <f t="shared" si="12"/>
-        <v>3.3542536075313115E-2</v>
+        <v>3.3204604085588806E-2</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
@@ -18758,11 +18758,11 @@
       </c>
       <c r="AH21" s="13">
         <f t="shared" si="11"/>
-        <v>2.8691013709258029E-2</v>
+        <v>2.8369571448752538E-2</v>
       </c>
       <c r="AI21" s="14">
         <f t="shared" si="12"/>
-        <v>2.869124018024917E-2</v>
+        <v>2.836973376214471E-2</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
@@ -18864,11 +18864,11 @@
       </c>
       <c r="AH22" s="13">
         <f t="shared" si="11"/>
-        <v>2.4341185476315353E-2</v>
+        <v>2.404246464700132E-2</v>
       </c>
       <c r="AI22" s="14">
         <f t="shared" si="12"/>
-        <v>2.4341377612168629E-2</v>
+        <v>2.4042602203326414E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -18970,11 +18970,11 @@
       </c>
       <c r="AH23" s="13">
         <f t="shared" si="11"/>
-        <v>2.0499586468425698E-2</v>
+        <v>2.0227249565131715E-2</v>
       </c>
       <c r="AI23" s="14">
         <f t="shared" si="12"/>
-        <v>2.0499748280821472E-2</v>
+        <v>2.0227365293122076E-2</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
@@ -19076,11 +19076,11 @@
       </c>
       <c r="AH24" s="13">
         <f t="shared" si="11"/>
-        <v>1.7150140071717307E-2</v>
+        <v>1.6905795764568139E-2</v>
       </c>
       <c r="AI24" s="14">
         <f t="shared" si="12"/>
-        <v>1.7150275445436045E-2</v>
+        <v>1.6905892489224795E-2</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
@@ -19182,11 +19182,11 @@
       </c>
       <c r="AH25" s="13">
         <f t="shared" si="11"/>
-        <v>1.4261906115840876E-2</v>
+        <v>1.4045637385792885E-2</v>
       </c>
       <c r="AI25" s="14">
         <f t="shared" si="12"/>
-        <v>1.426201869143846E-2</v>
+        <v>1.4045717746367009E-2</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -19288,11 +19288,11 @@
       </c>
       <c r="AH26" s="13">
         <f t="shared" si="11"/>
-        <v>1.1795250351845496E-2</v>
+        <v>1.1606063407395317E-2</v>
       </c>
       <c r="AI26" s="14">
         <f t="shared" si="12"/>
-        <v>1.1795343457026965E-2</v>
+        <v>1.1606129810214435E-2</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
@@ -19394,11 +19394,11 @@
       </c>
       <c r="AH27" s="13">
         <f t="shared" si="11"/>
-        <v>9.7064208362484979E-3</v>
+        <v>9.5426110913234483E-3</v>
       </c>
       <c r="AI27" s="14">
         <f t="shared" si="12"/>
-        <v>9.706497453365253E-3</v>
+        <v>9.5426656883264085E-3</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
@@ -19500,11 +19500,11 @@
       </c>
       <c r="AH28" s="13">
         <f t="shared" si="11"/>
-        <v>7.9508082183947157E-3</v>
+        <v>7.8102477477189694E-3</v>
       </c>
       <c r="AI28" s="14">
         <f t="shared" si="12"/>
-        <v>7.9508709776766225E-3</v>
+        <v>7.8102924331950232E-3</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
@@ -19606,11 +19606,11 @@
       </c>
       <c r="AH29" s="13">
         <f t="shared" si="11"/>
-        <v>6.4851579154701468E-3</v>
+        <v>6.3655131739808173E-3</v>
       </c>
       <c r="AI29" s="14">
         <f t="shared" si="12"/>
-        <v>6.48520910571932E-3</v>
+        <v>6.3655495935664302E-3</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
@@ -19712,11 +19712,11 @@
       </c>
       <c r="AH30" s="13">
         <f t="shared" si="11"/>
-        <v>5.2689743852880984E-3</v>
+        <v>5.1678648147982214E-3</v>
       </c>
       <c r="AI30" s="14">
         <f t="shared" si="12"/>
-        <v>5.2690159756572435E-3</v>
+        <v>5.1678943821700752E-3</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
@@ -19818,11 +19818,11 @@
       </c>
       <c r="AH31" s="13">
         <f t="shared" si="11"/>
-        <v>4.2653220121196614E-3</v>
+        <v>4.1804303863919911E-3</v>
       </c>
       <c r="AI31" s="14">
         <f t="shared" si="12"/>
-        <v>4.2653556802121663E-3</v>
+        <v>4.1804543042660404E-3</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
@@ -19924,11 +19924,11 @@
       </c>
       <c r="AH32" s="13">
         <f t="shared" si="11"/>
-        <v>3.4411900935538988E-3</v>
+        <v>3.3703347369364637E-3</v>
       </c>
       <c r="AI32" s="14">
         <f t="shared" si="12"/>
-        <v>3.4412172564049254E-3</v>
+        <v>3.3703540199370862E-3</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
@@ -20030,11 +20030,11 @@
       </c>
       <c r="AH33" s="13">
         <f t="shared" si="11"/>
-        <v>2.7675547628130586E-3</v>
+        <v>2.7087325753326207E-3</v>
       </c>
       <c r="AI33" s="14">
         <f t="shared" si="12"/>
-        <v>2.7675766083594209E-3</v>
+        <v>2.7087480730490234E-3</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
@@ -20136,11 +20136,11 @@
       </c>
       <c r="AH34" s="13">
         <f t="shared" si="11"/>
-        <v>2.2192402243470469E-3</v>
+        <v>2.1706480585199266E-3</v>
       </c>
       <c r="AI34" s="14">
         <f t="shared" si="12"/>
-        <v>2.2192577418017551E-3</v>
+        <v>2.1706604776447701E-3</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
@@ -20242,11 +20242,11 @@
       </c>
       <c r="AH35" s="13">
         <f t="shared" si="11"/>
-        <v>1.7746560666103022E-3</v>
+        <v>1.7346966147987412E-3</v>
       </c>
       <c r="AI35" s="14">
         <f t="shared" si="12"/>
-        <v>1.774670074763601E-3</v>
+        <v>1.734706539675204E-3</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
@@ -20348,11 +20348,11 @@
       </c>
       <c r="AH36" s="13">
         <f t="shared" si="11"/>
-        <v>1.4154665961048593E-3</v>
+        <v>1.3827436684435267E-3</v>
       </c>
       <c r="AI36" s="14">
         <f t="shared" si="12"/>
-        <v>1.4154777690151717E-3</v>
+        <v>1.3827515796598006E-3</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
@@ -20454,11 +20454,11 @@
       </c>
       <c r="AH37" s="13">
         <f t="shared" si="11"/>
-        <v>1.1262316888454396E-3</v>
+        <v>1.0995386429377004E-3</v>
       </c>
       <c r="AI37" s="14">
         <f t="shared" si="12"/>
-        <v>1.1262405786953908E-3</v>
+        <v>1.0995449338274757E-3</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
@@ -20560,11 +20560,11 @@
       </c>
       <c r="AH38" s="13">
         <f t="shared" si="11"/>
-        <v>8.940459886517631E-4</v>
+        <v>8.7235013089999097E-4</v>
       </c>
       <c r="AI38" s="14">
         <f t="shared" si="12"/>
-        <v>8.9405304575623584E-4</v>
+        <v>8.7235512195560708E-4</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
@@ -20666,11 +20666,11 @@
       </c>
       <c r="AH39" s="13">
         <f t="shared" si="11"/>
-        <v>7.0819376212185193E-4</v>
+        <v>6.9061877307980963E-4</v>
       </c>
       <c r="AI39" s="14">
         <f t="shared" si="12"/>
-        <v>7.0819935221165683E-4</v>
+        <v>6.9062272437938981E-4</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
@@ -20772,11 +20772,11 @@
       </c>
       <c r="AH40" s="13">
         <f t="shared" si="11"/>
-        <v>5.5982974206259558E-4</v>
+        <v>5.4563756923811982E-4</v>
       </c>
       <c r="AI40" s="14">
         <f t="shared" si="12"/>
-        <v>5.5983416104889703E-4</v>
+        <v>5.4564069104364018E-4</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
@@ -20878,11 +20878,11 @@
       </c>
       <c r="AH41" s="13">
         <f t="shared" si="11"/>
-        <v>4.416913135884553E-4</v>
+        <v>4.3026450387515636E-4</v>
       </c>
       <c r="AI41" s="14">
         <f t="shared" si="12"/>
-        <v>4.4169480005535326E-4</v>
+        <v>4.3026696558633447E-4</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
@@ -20984,11 +20984,11 @@
       </c>
       <c r="AH42" s="13">
         <f t="shared" si="11"/>
-        <v>3.4784395840343129E-4</v>
+        <v>3.3866904646693359E-4</v>
       </c>
       <c r="AI42" s="14">
         <f t="shared" si="12"/>
-        <v>3.4784670409122122E-4</v>
+        <v>3.3867098412474611E-4</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
@@ -21090,11 +21090,11 @@
       </c>
       <c r="AH43" s="13">
         <f t="shared" si="11"/>
-        <v>2.7345959210952437E-4</v>
+        <v>2.6611189912382669E-4</v>
       </c>
       <c r="AI43" s="14">
         <f t="shared" si="12"/>
-        <v>2.7346175064827413E-4</v>
+        <v>2.6611342165387697E-4</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
@@ -21196,11 +21196,11 @@
       </c>
       <c r="AH44" s="13">
         <f t="shared" si="11"/>
-        <v>2.1462600095825245E-4</v>
+        <v>2.0875601071101803E-4</v>
       </c>
       <c r="AI44" s="14">
         <f t="shared" si="12"/>
-        <v>2.1462769509717882E-4</v>
+        <v>2.0875720508564211E-4</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
@@ -21302,11 +21302,11 @@
       </c>
       <c r="AH45" s="13">
         <f t="shared" si="11"/>
-        <v>1.6818476839919579E-4</v>
+        <v>1.6350611824604488E-4</v>
       </c>
       <c r="AI45" s="14">
         <f t="shared" si="12"/>
-        <v>1.6818609595672235E-4</v>
+        <v>1.6350705372837111E-4</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
@@ -21408,11 +21408,11 @@
       </c>
       <c r="AH46" s="13">
         <f t="shared" si="11"/>
-        <v>1.3159469379845818E-4</v>
+        <v>1.2787373229534874E-4</v>
       </c>
       <c r="AI46" s="14">
         <f t="shared" si="12"/>
-        <v>1.3159573253417644E-4</v>
+        <v>1.2787446391088604E-4</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
@@ -21514,11 +21514,11 @@
       </c>
       <c r="AH47" s="13">
         <f t="shared" si="11"/>
-        <v>1.0281760703358966E-4</v>
+        <v>9.9864416981873148E-5</v>
       </c>
       <c r="AI47" s="14">
         <f t="shared" si="12"/>
-        <v>1.0281841861890371E-4</v>
+        <v>9.986498834518425E-5</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
@@ -21620,11 +21620,11 @@
       </c>
       <c r="AH48" s="13">
         <f t="shared" si="11"/>
-        <v>8.0223570910313092E-5</v>
+        <v>7.7884327018676016E-5</v>
       </c>
       <c r="AI48" s="14">
         <f t="shared" si="12"/>
-        <v>8.0224204150804385E-5</v>
+        <v>7.7884772625312621E-5</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
@@ -21726,11 +21726,11 @@
       </c>
       <c r="AH49" s="13">
         <f t="shared" si="11"/>
-        <v>6.2512664513370274E-5</v>
+        <v>6.0663181928149634E-5</v>
       </c>
       <c r="AI49" s="14">
         <f t="shared" si="12"/>
-        <v>6.2513157953763651E-5</v>
+        <v>6.0663529005892997E-5</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
@@ -21832,11 +21832,11 @@
       </c>
       <c r="AH50" s="13">
         <f t="shared" si="11"/>
-        <v>4.865080253411857E-5</v>
+        <v>4.7191130795176409E-5</v>
       </c>
       <c r="AI50" s="14">
         <f t="shared" si="12"/>
-        <v>4.8651186556641485E-5</v>
+        <v>4.7191400794056495E-5</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
@@ -21938,11 +21938,11 @@
       </c>
       <c r="AH51" s="13">
         <f t="shared" si="11"/>
-        <v>3.7817332574739186E-5</v>
+        <v>3.6667255150365388E-5</v>
       </c>
       <c r="AI51" s="14">
         <f t="shared" si="12"/>
-        <v>3.7817631083843021E-5</v>
+        <v>3.6667464938044973E-5</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
@@ -22044,11 +22044,11 @@
       </c>
       <c r="AH52" s="13">
         <f t="shared" si="11"/>
-        <v>2.9362440824763666E-5</v>
+        <v>2.8457750369747741E-5</v>
       </c>
       <c r="AI52" s="14">
         <f t="shared" si="12"/>
-        <v>2.9362672595629041E-5</v>
+        <v>2.8457913187645939E-5</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
@@ -22150,11 +22150,11 @@
       </c>
       <c r="AH53" s="13">
         <f t="shared" si="11"/>
-        <v>2.2772671562093019E-5</v>
+        <v>2.2062103365287815E-5</v>
       </c>
       <c r="AI53" s="14">
         <f t="shared" si="12"/>
-        <v>2.2772851316965115E-5</v>
+        <v>2.2062229591192995E-5</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
@@ -22256,11 +22256,11 @@
       </c>
       <c r="AH54" s="13">
         <f t="shared" si="11"/>
-        <v>1.7643119123204184E-5</v>
+        <v>1.7085838437629102E-5</v>
       </c>
       <c r="AI54" s="14">
         <f t="shared" si="12"/>
-        <v>1.7643258388226854E-5</v>
+        <v>1.708593619238017E-5</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
@@ -22362,11 +22362,11 @@
       </c>
       <c r="AH55" s="13">
         <f t="shared" si="11"/>
-        <v>1.3655078119035267E-5</v>
+        <v>1.321863024813936E-5</v>
       </c>
       <c r="AI55" s="14">
         <f t="shared" si="12"/>
-        <v>1.3655185904668325E-5</v>
+        <v>1.3218705877082832E-5</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
@@ -22468,11 +22468,11 @@
       </c>
       <c r="AH56" s="13">
         <f t="shared" si="11"/>
-        <v>1.055813744914698E-5</v>
+        <v>1.0216781996418483E-5</v>
       </c>
       <c r="AI56" s="14">
         <f t="shared" si="12"/>
-        <v>1.0558220789243531E-5</v>
+        <v>1.021684045061635E-5</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
@@ -22574,11 +22574,11 @@
       </c>
       <c r="AH57" s="13">
         <f t="shared" si="11"/>
-        <v>8.1558766567471806E-6</v>
+        <v>7.889238883013353E-6</v>
       </c>
       <c r="AI57" s="14">
         <f t="shared" si="12"/>
-        <v>8.1559410347259027E-6</v>
+        <v>7.8892840204285259E-6</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
@@ -22666,11 +22666,11 @@
       </c>
       <c r="AH58" s="5">
         <f>SUM(AH3:AH56)</f>
-        <v>0.99999210661547855</v>
+        <v>0.99999427864238943</v>
       </c>
       <c r="AI58" s="5">
         <f>SUM(AI3:AI56)</f>
-        <v>1</v>
+        <v>0.99999999999999967</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">

--- a/SEIR_2_wave/data/calibration/hospital_rates - Copy.xlsx
+++ b/SEIR_2_wave/data/calibration/hospital_rates - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A77B58-C31D-46AC-9DC2-2883385F5A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6925B5-92C8-4120-BEB0-F195B8D27420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9DE2AF73-A7CF-4380-A829-23151371B406}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9DE2AF73-A7CF-4380-A829-23151371B406}"/>
   </bookViews>
   <sheets>
     <sheet name="young" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>day</t>
   </si>
@@ -184,16 +184,7 @@
     <t>damping - recovery</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>std</t>
   </si>
   <si>
     <t>lambda_y</t>
@@ -1505,121 +1496,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.15182229301225417</c:v>
+                  <c:v>0.16135396197338889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0274075533100268E-2</c:v>
+                  <c:v>9.3837013477199221E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6603124806762171E-2</c:v>
+                  <c:v>6.8339345095484713E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3677286462127959E-2</c:v>
+                  <c:v>5.4571855507163106E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5405456163617061E-2</c:v>
+                  <c:v>4.5833718215054879E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9602454950807893E-2</c:v>
+                  <c:v>3.9743430953406551E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5278654765278028E-2</c:v>
+                  <c:v>3.523002622633864E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1916705487400908E-2</c:v>
+                  <c:v>3.1736809422417432E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9218213913203728E-2</c:v>
+                  <c:v>2.8944229388367847E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6998245764858774E-2</c:v>
+                  <c:v>2.6655058117293556E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5135702790052745E-2</c:v>
+                  <c:v>2.4740618583275215E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.354776059953774E-2</c:v>
+                  <c:v>2.3113190530890188E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2175735461048403E-2</c:v>
+                  <c:v>2.1710805280539123E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0976813627296642E-2</c:v>
+                  <c:v>2.0488374784055439E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.991898030106333E-2</c:v>
+                  <c:v>1.9412267587358163E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8977786626531774E-2</c:v>
+                  <c:v>1.8456859546999195E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8134218963953324E-2</c:v>
+                  <c:v>1.7602265903849494E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7373253936626688E-2</c:v>
+                  <c:v>1.6832806644384472E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6682853869552559E-2</c:v>
+                  <c:v>1.613594176505578E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6053252978081071E-2</c:v>
+                  <c:v>1.5501516152423437E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.547644024950167E-2</c:v>
+                  <c:v>1.4921213526828698E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4945778299262236E-2</c:v>
+                  <c:v>1.4388154657249293E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4455718063484394E-2</c:v>
+                  <c:v>1.3896597089912248E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4001582223675511E-2</c:v>
+                  <c:v>1.3441707565296192E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3579398707011669E-2</c:v>
+                  <c:v>1.3019387312990266E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3185771195348452E-2</c:v>
+                  <c:v>1.262613636996898E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.281777734535146E-2</c:v>
+                  <c:v>1.2258947078230192E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.24728880078336E-2</c:v>
+                  <c:v>1.1915219665039252E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2148902536311118E-2</c:v>
+                  <c:v>1.1592694721010908E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1843896548811779E-2</c:v>
+                  <c:v>1.1289398741373012E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1556179419841519E-2</c:v>
+                  <c:v>1.100359986196109E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1284259441637533E-2</c:v>
+                  <c:v>1.0733771621574276E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.102681507976196E-2</c:v>
+                  <c:v>1.0478563095445115E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0782671108475285E-2</c:v>
+                  <c:v>1.0236774124710872E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0550778681276539E-2</c:v>
+                  <c:v>1.0007334651214235E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0330198596092742E-2</c:v>
+                  <c:v>9.7892873817917031E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0120087170257672E-2</c:v>
+                  <c:v>9.5817731698902512E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.9196842601112882E-3</c:v>
+                  <c:v>9.3840186280926881E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.7283030527982924E-3</c:v>
+                  <c:v>9.1953255824752077E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12669,16 +12660,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>586482</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>32536</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406684</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295381</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>70209</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115582</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12705,15 +12696,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>513709</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>51372</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>111304</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>222607</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>428090</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>89045</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13113,10 +13104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636285BC-5E8B-4698-A0EE-C4FD2EEB2564}">
-  <dimension ref="A1:AB46"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="G4" zoomScale="72" workbookViewId="0">
+      <selection activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13142,10 +13133,10 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -13198,14 +13189,14 @@
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>18</v>
@@ -13216,7 +13207,7 @@
       </c>
       <c r="AA2" s="11"/>
       <c r="AB2" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -13281,7 +13272,7 @@
       </c>
       <c r="V3">
         <f>U3/$U$42</f>
-        <v>0.15182229301225417</v>
+        <v>0.16135396197338889</v>
       </c>
       <c r="X3">
         <f>P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B2</f>
@@ -13329,7 +13320,7 @@
         <v>0.24137931034482757</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J4" s="42">
         <f>1-0.00001</f>
@@ -13364,11 +13355,11 @@
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U41" si="3">1/(1+N4)^$J$5</f>
-        <v>0.59460355750136051</v>
+        <v>0.58156002077392543</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V41" si="4">U4/$U$42</f>
-        <v>9.0274075533100268E-2</v>
+        <v>9.3837013477199221E-2</v>
       </c>
       <c r="X4">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B3)/$B$41</f>
@@ -13416,10 +13407,10 @@
         <v>0.31034482758620685</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J5" s="44">
-        <v>0.75</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="N5" s="6">
         <v>2</v>
@@ -13450,11 +13441,11 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.43869133765083085</v>
+        <v>0.42353682710781837</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>6.6603124806762171E-2</v>
+        <v>6.8339345095484713E-2</v>
       </c>
       <c r="X5">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B4)/$B$41</f>
@@ -13536,11 +13527,11 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.35355339059327379</v>
+        <v>0.33821205776256863</v>
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>5.3677286462127959E-2</v>
+        <v>5.4571855507163106E-2</v>
       </c>
       <c r="X6">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B5)/$B$41</f>
@@ -13588,10 +13579,14 @@
         <v>0.37931034482758619</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J7" s="44">
         <v>2.4500000000000002</v>
+      </c>
+      <c r="K7">
+        <f>J7*J8</f>
+        <v>7.9625000000000004</v>
       </c>
       <c r="N7" s="6">
         <v>4</v>
@@ -13622,11 +13617,11 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.29906975624424414</v>
+        <v>0.28405697421061127</v>
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>4.5405456163617061E-2</v>
+        <v>4.5833718215054879E-2</v>
       </c>
       <c r="X7">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B6)/$B$41</f>
@@ -13674,7 +13669,7 @@
         <v>0.48275862068965514</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J8" s="44">
         <v>3.25</v>
@@ -13708,11 +13703,11 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.2608474300122145</v>
+        <v>0.24631208597134535</v>
       </c>
       <c r="V8">
         <f t="shared" si="4"/>
-        <v>3.9602454950807893E-2</v>
+        <v>3.9743430953406551E-2</v>
       </c>
       <c r="X8">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B7)/$B$41</f>
@@ -13788,11 +13783,11 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.23236808024254085</v>
+        <v>0.21834001344292314</v>
       </c>
       <c r="V9">
         <f t="shared" si="4"/>
-        <v>3.5278654765278028E-2</v>
+        <v>3.523002622633864E-2</v>
       </c>
       <c r="X9">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B8)/$B$41</f>
@@ -13868,11 +13863,11 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.21022410381342868</v>
+        <v>0.1966906113383915</v>
       </c>
       <c r="V10">
         <f t="shared" si="4"/>
-        <v>3.1916705487400908E-2</v>
+        <v>3.1736809422417432E-2</v>
       </c>
       <c r="X10">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B9)/$B$41</f>
@@ -13948,11 +13943,11 @@
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>0.19245008972987526</v>
+        <v>0.17938344391655806</v>
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>2.9218213913203728E-2</v>
+        <v>2.8944229388367847E-2</v>
       </c>
       <c r="X11">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B10)/$B$41</f>
@@ -14029,11 +14024,11 @@
       </c>
       <c r="U12">
         <f t="shared" si="3"/>
-        <v>0.17782794100389224</v>
+        <v>0.16519617982290147</v>
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>2.6998245764858774E-2</v>
+        <v>2.6655058117293556E-2</v>
       </c>
       <c r="X12">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B11)/$B$41</f>
@@ -14110,11 +14105,11 @@
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
-        <v>0.16556002607617015</v>
+        <v>0.15333133615495312</v>
       </c>
       <c r="V13">
         <f t="shared" si="4"/>
-        <v>2.5135702790052745E-2</v>
+        <v>2.4740618583275215E-2</v>
       </c>
       <c r="X13">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B12)/$B$41</f>
@@ -14191,11 +14186,11 @@
       </c>
       <c r="U14">
         <f t="shared" si="3"/>
-        <v>0.15510080985034991</v>
+        <v>0.14324526183436453</v>
       </c>
       <c r="V14">
         <f t="shared" si="4"/>
-        <v>2.354776059953774E-2</v>
+        <v>2.3113190530890188E-2</v>
       </c>
       <c r="X14">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B13)/$B$41</f>
@@ -14272,11 +14267,11 @@
       </c>
       <c r="U15">
         <f t="shared" si="3"/>
-        <v>0.14606376323968781</v>
+        <v>0.13455390258170266</v>
       </c>
       <c r="V15">
         <f t="shared" si="4"/>
-        <v>2.2175735461048403E-2</v>
+        <v>2.1710805280539123E-2</v>
       </c>
       <c r="X15">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B14)/$B$41</f>
@@ -14352,11 +14347,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="3"/>
-        <v>0.13816688716197642</v>
+        <v>0.12697782275364555</v>
       </c>
       <c r="V16">
         <f t="shared" si="4"/>
-        <v>2.0976813627296642E-2</v>
+        <v>2.0488374784055439E-2</v>
       </c>
       <c r="X16">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B15)/$B$41</f>
@@ -14432,11 +14427,11 @@
       </c>
       <c r="U17">
         <f t="shared" si="3"/>
-        <v>0.13119931141769536</v>
+        <v>0.12030858957500967</v>
       </c>
       <c r="V17">
         <f t="shared" si="4"/>
-        <v>1.991898030106333E-2</v>
+        <v>1.9412267587358163E-2</v>
       </c>
       <c r="X17">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B16)/$B$41</f>
@@ -14512,11 +14507,11 @@
       </c>
       <c r="U18">
         <f t="shared" si="3"/>
-        <v>0.12500000000000003</v>
+        <v>0.11438739601599104</v>
       </c>
       <c r="V18">
         <f t="shared" si="4"/>
-        <v>1.8977786626531774E-2</v>
+        <v>1.8456859546999195E-2</v>
       </c>
       <c r="X18">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B17)/$B$41</f>
@@ -14592,11 +14587,11 @@
       </c>
       <c r="U19">
         <f t="shared" si="3"/>
-        <v>0.1194437167569959</v>
+        <v>0.10909100519485557</v>
       </c>
       <c r="V19">
         <f t="shared" si="4"/>
-        <v>1.8134218963953324E-2</v>
+        <v>1.7602265903849494E-2</v>
       </c>
       <c r="X19">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B18)/$B$41</f>
@@ -14672,11 +14667,11 @@
       </c>
       <c r="U20">
         <f t="shared" si="3"/>
-        <v>0.11443150799483991</v>
+        <v>0.10432223937061182</v>
       </c>
       <c r="V20">
         <f t="shared" si="4"/>
-        <v>1.7373253936626688E-2</v>
+        <v>1.6832806644384472E-2</v>
       </c>
       <c r="X20">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B19)/$B$41</f>
@@ -14752,11 +14747,11 @@
       </c>
       <c r="U21">
         <f t="shared" si="3"/>
-        <v>0.10988408578578128</v>
+        <v>0.10000338118574975</v>
       </c>
       <c r="V21">
         <f t="shared" si="4"/>
-        <v>1.6682853869552559E-2</v>
+        <v>1.613594176505578E-2</v>
       </c>
       <c r="X21">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B20)/$B$41</f>
@@ -14832,11 +14827,11 @@
       </c>
       <c r="U22">
         <f t="shared" si="3"/>
-        <v>0.10573712634405641</v>
+        <v>9.6071493769579741E-2</v>
       </c>
       <c r="V22">
         <f t="shared" si="4"/>
-        <v>1.6053252978081071E-2</v>
+        <v>1.5501516152423437E-2</v>
       </c>
       <c r="X22">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B21)/$B$41</f>
@@ -14912,11 +14907,11 @@
       </c>
       <c r="U23">
         <f t="shared" si="3"/>
-        <v>0.10193786394895582</v>
+        <v>9.2475036524294091E-2</v>
       </c>
       <c r="V23">
         <f t="shared" si="4"/>
-        <v>1.547644024950167E-2</v>
+        <v>1.4921213526828698E-2</v>
       </c>
       <c r="X23">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B22)/$B$41</f>
@@ -14992,11 +14987,11 @@
       </c>
       <c r="U24">
         <f t="shared" si="3"/>
-        <v>9.8442580484908795E-2</v>
+        <v>8.9171375039568249E-2</v>
       </c>
       <c r="V24">
         <f t="shared" si="4"/>
-        <v>1.4945778299262236E-2</v>
+        <v>1.4388154657249293E-2</v>
       </c>
       <c r="X24">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B23)/$B$41</f>
@@ -15072,11 +15067,11 @@
       </c>
       <c r="U25">
         <f t="shared" si="3"/>
-        <v>9.5214726221514889E-2</v>
+        <v>8.6124920144223835E-2</v>
       </c>
       <c r="V25">
         <f t="shared" si="4"/>
-        <v>1.4455718063484394E-2</v>
+        <v>1.3896597089912248E-2</v>
       </c>
       <c r="X25">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B24)/$B$41</f>
@@ -15152,11 +15147,11 @@
       </c>
       <c r="U26">
         <f t="shared" si="3"/>
-        <v>9.2223493308360119E-2</v>
+        <v>8.3305717448159414E-2</v>
       </c>
       <c r="V26">
         <f t="shared" si="4"/>
-        <v>1.4001582223675511E-2</v>
+        <v>1.3441707565296192E-2</v>
       </c>
       <c r="X26">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B25)/$B$41</f>
@@ -15232,11 +15227,11 @@
       </c>
       <c r="U27">
         <f t="shared" si="3"/>
-        <v>8.9442719099991616E-2</v>
+        <v>8.068836459768787E-2</v>
       </c>
       <c r="V27">
         <f t="shared" si="4"/>
-        <v>1.3579398707011669E-2</v>
+        <v>1.3019387312990266E-2</v>
       </c>
       <c r="X27">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B26)/$B$41</f>
@@ -15312,11 +15307,11 @@
       </c>
       <c r="U28">
         <f t="shared" si="3"/>
-        <v>8.6850033244354807E-2</v>
+        <v>7.8251170380627719E-2</v>
       </c>
       <c r="V28">
         <f t="shared" si="4"/>
-        <v>1.3185771195348452E-2</v>
+        <v>1.262613636996898E-2</v>
       </c>
       <c r="X28">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B27)/$B$41</f>
@@ -15392,11 +15387,11 @@
       </c>
       <c r="U29">
         <f t="shared" si="3"/>
-        <v>8.4426187294621396E-2</v>
+        <v>7.5975494672092303E-2</v>
       </c>
       <c r="V29">
         <f t="shared" si="4"/>
-        <v>1.281777734535146E-2</v>
+        <v>1.2258947078230192E-2</v>
       </c>
       <c r="X29">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B28)/$B$41</f>
@@ -15472,11 +15467,11 @@
       </c>
       <c r="U30">
         <f t="shared" si="3"/>
-        <v>8.2154522635400226E-2</v>
+        <v>7.3845225238437937E-2</v>
       </c>
       <c r="V30">
         <f t="shared" si="4"/>
-        <v>1.24728880078336E-2</v>
+        <v>1.1915219665039252E-2</v>
       </c>
       <c r="X30">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B29)/$B$41</f>
@@ -15552,11 +15547,11 @@
       </c>
       <c r="U31">
         <f t="shared" si="3"/>
-        <v>8.0020544382968406E-2</v>
+        <v>7.1846359266485318E-2</v>
       </c>
       <c r="V31">
         <f t="shared" si="4"/>
-        <v>1.2148902536311118E-2</v>
+        <v>1.1592694721010908E-2</v>
       </c>
       <c r="X31">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B30)/$B$41</f>
@@ -15632,11 +15627,11 @@
       </c>
       <c r="U32">
         <f t="shared" si="3"/>
-        <v>7.8011577310690541E-2</v>
+        <v>6.9966665852524298E-2</v>
       </c>
       <c r="V32">
         <f t="shared" si="4"/>
-        <v>1.1843896548811779E-2</v>
+        <v>1.1289398741373012E-2</v>
       </c>
       <c r="X32">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B31)/$B$41</f>
@@ -15712,11 +15707,11 @@
       </c>
       <c r="U33">
         <f t="shared" si="3"/>
-        <v>7.611648586356666E-2</v>
+        <v>6.8195411673720452E-2</v>
       </c>
       <c r="V33">
         <f t="shared" si="4"/>
-        <v>1.1556179419841519E-2</v>
+        <v>1.100359986196109E-2</v>
       </c>
       <c r="X33">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B32)/$B$41</f>
@@ -15792,11 +15787,11 @@
       </c>
       <c r="U34">
         <f t="shared" si="3"/>
-        <v>7.4325444687670064E-2</v>
+        <v>6.6523136403334987E-2</v>
       </c>
       <c r="V34">
         <f t="shared" si="4"/>
-        <v>1.1284259441637533E-2</v>
+        <v>1.0733771621574276E-2</v>
       </c>
       <c r="X34">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B33)/$B$41</f>
@@ -15872,11 +15867,11 @@
       </c>
       <c r="U35">
         <f t="shared" si="3"/>
-        <v>7.2629749300861524E-2</v>
+        <v>6.4941467611271175E-2</v>
       </c>
       <c r="V35">
         <f t="shared" si="4"/>
-        <v>1.102681507976196E-2</v>
+        <v>1.0478563095445115E-2</v>
       </c>
       <c r="X35">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B34)/$B$41</f>
@@ -15952,11 +15947,11 @@
       </c>
       <c r="U36">
         <f t="shared" si="3"/>
-        <v>7.1021658904894647E-2</v>
+        <v>6.3442967247368615E-2</v>
       </c>
       <c r="V36">
         <f t="shared" si="4"/>
-        <v>1.0782671108475285E-2</v>
+        <v>1.0236774124710872E-2</v>
       </c>
       <c r="X36">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B35)/$B$41</f>
@@ -16032,11 +16027,11 @@
       </c>
       <c r="U37">
         <f t="shared" si="3"/>
-        <v>6.9494265117079637E-2</v>
+        <v>6.2021003567700947E-2</v>
       </c>
       <c r="V37">
         <f t="shared" si="4"/>
-        <v>1.0550778681276539E-2</v>
+        <v>1.0007334651214235E-2</v>
       </c>
       <c r="X37">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B36)/$B$41</f>
@@ -16112,11 +16107,11 @@
       </c>
       <c r="U38">
         <f t="shared" si="3"/>
-        <v>6.8041381743977156E-2</v>
+        <v>6.0669643695555421E-2</v>
       </c>
       <c r="V38">
         <f t="shared" si="4"/>
-        <v>1.0330198596092742E-2</v>
+        <v>9.7892873817917031E-3</v>
       </c>
       <c r="X38">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B37)/$B$41</f>
@@ -16192,11 +16187,11 @@
       </c>
       <c r="U39">
         <f t="shared" si="3"/>
-        <v>6.6657451744855684E-2</v>
+        <v>5.9383563023203072E-2</v>
       </c>
       <c r="V39">
         <f t="shared" si="4"/>
-        <v>1.0120087170257672E-2</v>
+        <v>9.5817731698902512E-3</v>
       </c>
       <c r="X39">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B38)/$B$41</f>
@@ -16272,11 +16267,11 @@
       </c>
       <c r="U40">
         <f t="shared" si="3"/>
-        <v>6.5337468321010228E-2</v>
+        <v>5.8157968439847399E-2</v>
       </c>
       <c r="V40">
         <f t="shared" si="4"/>
-        <v>9.9196842601112882E-3</v>
+        <v>9.3840186280926881E-3</v>
       </c>
       <c r="X40">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B39)/$B$41</f>
@@ -16352,11 +16347,11 @@
       </c>
       <c r="U41">
         <f t="shared" si="3"/>
-        <v>6.4076907677932934E-2</v>
+        <v>5.6988532974428824E-2</v>
       </c>
       <c r="V41">
         <f t="shared" si="4"/>
-        <v>9.7283030527982924E-3</v>
+        <v>9.1953255824752077E-3</v>
       </c>
       <c r="X41">
         <f>(P_smrt_vyliecenie_hosp_Y[[#This Row],[P_rec]]-B40)/$B$41</f>
@@ -16389,7 +16384,7 @@
         <v>5.151830716398012E-2</v>
       </c>
       <c r="N42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" ref="O42:V42" si="10">SUM(O3:O41)</f>
@@ -16417,11 +16412,11 @@
       </c>
       <c r="U42" s="8">
         <f t="shared" si="10"/>
-        <v>6.5866479827128295</v>
+        <v>6.1975546665840398</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" si="10"/>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="W42" s="8"/>
       <c r="X42" s="8">
@@ -16454,20 +16449,24 @@
         <f>SUMPRODUCT(P_smrt_vyliecenie_hosp_Y[day],P_smrt_vyliecenie_hosp_Y[P_death],P_smrt_vyliecenie_hosp_Y[P_cont_cum])/P_smrt_vyliecenie_hosp_Y[[#Totals],[P_death]]</f>
         <v>3.407570328175872</v>
       </c>
-      <c r="Q43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R43" s="16">
-        <f>1/R44</f>
-        <v>5.6721497447532609</v>
-      </c>
-      <c r="S43" s="16"/>
-      <c r="T43" s="17">
-        <f>SUM(T4:T41)</f>
-        <v>0.86206896551724133</v>
-      </c>
-      <c r="U43" s="17"/>
-      <c r="V43" s="16"/>
+      <c r="O43" s="8">
+        <f>SUMPRODUCT(O3:O41,N3:N41)</f>
+        <v>10.620689655172415</v>
+      </c>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16">
+        <f>SUMPRODUCT(S3:S41,N3:N41)</f>
+        <v>8.1678339084688663</v>
+      </c>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V43" s="16">
+        <f>SUMPRODUCT(N3:N41,V3:V41)</f>
+        <v>10.607636679086083</v>
+      </c>
       <c r="W43" s="16"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
@@ -16479,12 +16478,8 @@
         <f>P_smrt_vyliecenie_hosp_Y[[#Totals],[P_death]]/C43</f>
         <v>1.5118780304545823E-2</v>
       </c>
-      <c r="Q44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="R44" s="9">
-        <v>0.17630000000000001</v>
-      </c>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
@@ -16497,31 +16492,11 @@
       <c r="AB44" s="9"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Q45" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45">
-        <f>SUMPRODUCT(V4:V41,N4:N41)</f>
-        <v>10.978652088506564</v>
-      </c>
-      <c r="T45">
-        <f>1/R45</f>
-        <v>9.1085862994683062E-2</v>
-      </c>
       <c r="AA45">
         <f>(SUMPRODUCT(N4:N41,N4:N41,AA4:AA41)-AA44^2)^0.5</f>
         <v>5.0617362442448064</v>
       </c>
       <c r="AB45" s="9"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Q46" t="s">
-        <v>27</v>
-      </c>
-      <c r="R46" t="e">
-        <f>(SUMPRODUCT(T4:T41,N4:N41,N4:N41)-R45^2)^0.5</f>
-        <v>#NUM!</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16541,7 +16516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6014CE-AE6A-49D3-8A4D-846F0431249A}">
   <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+    <sheetView topLeftCell="C6" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -16632,26 +16607,26 @@
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T2" s="11"/>
       <c r="U2" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X2" s="11"/>
       <c r="Y2" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
@@ -16664,7 +16639,7 @@
       </c>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -16692,7 +16667,7 @@
         <v>7.3732718894009217E-2</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J3" s="42">
         <v>0.99999000000000005</v>
@@ -16804,7 +16779,7 @@
         <v>0.13364055299539171</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J4" s="47">
         <v>0.75</v>
@@ -16916,7 +16891,7 @@
         <v>0.21658986175115208</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <v>17</v>
@@ -17032,7 +17007,7 @@
         <v>0.27188940092165897</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J6">
         <v>0.9</v>
@@ -17148,7 +17123,7 @@
         <v>0.33179723502304143</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -17264,7 +17239,7 @@
         <v>0.38248847926267282</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J8">
         <v>0.3</v>
@@ -17376,7 +17351,7 @@
         <v>0.45161290322580649</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J9">
         <v>0.85</v>
@@ -17488,7 +17463,7 @@
         <v>0.5161290322580645</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -17600,7 +17575,7 @@
         <v>0.55760368663594473</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J11">
         <v>0.5</v>
@@ -18036,7 +18011,7 @@
         <v>0.73271889400921664</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J15" s="44">
         <v>3.63</v>
@@ -18148,7 +18123,7 @@
         <v>0.75115207373271897</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J16" s="44">
         <v>3.25</v>
@@ -22739,7 +22714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A367B-3B37-4EA4-A42A-FCD3FB348D45}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="89" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -22770,50 +22745,50 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K2" s="24"/>
       <c r="L2" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S2" s="24"/>
       <c r="T2" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="U2" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V2" s="26"/>
       <c r="W2" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -22835,7 +22810,7 @@
         <v>0.52856246076585056</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>0.65</v>
@@ -22917,7 +22892,7 @@
         <v>0.64888051893701604</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>0.48577260842003672</v>
@@ -22999,7 +22974,7 @@
         <v>0.7180790960451976</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">SUMPRODUCT(O3:O33-L3:L33,O3:O33-L3:L33)</f>
@@ -23082,7 +23057,7 @@
         <v>0.78637790332705582</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">SUMPRODUCT(X3:X33-R3:R33,X3:X33-R3:R33)</f>
@@ -23165,7 +23140,7 @@
         <v>0.83145009416195859</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>0.67500000000000004</v>
@@ -23247,7 +23222,7 @@
         <v>0.86409290646578785</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>0.9425</v>
@@ -23329,7 +23304,7 @@
         <v>0.88920276208411808</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>0.67500000000000004</v>
@@ -23411,7 +23386,7 @@
         <v>0.90985561833019457</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <v>0.88249999999999995</v>
@@ -25241,7 +25216,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K36" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L36">
         <f>SUMPRODUCT(L3:L33,$A3:$A33)</f>
@@ -25256,7 +25231,7 @@
         <v>3.925699330761748</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T36">
         <f>SUMPRODUCT(T3:T33,$A3:$A33)</f>
@@ -25273,14 +25248,14 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M37">
         <f>H8</f>
         <v>0.9425</v>
       </c>
       <c r="S37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U37">
         <f>H10</f>
